--- a/zurmo/src/test/java/projekt/automatyzacja/testdata/loginTC.xlsx
+++ b/zurmo/src/test/java/projekt/automatyzacja/testdata/loginTC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>polite return</t>
   </si>
@@ -813,42 +813,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
+    <row r="1" spans="1:2" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:2" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1"/>
-    <row r="4" spans="1:4" s="1" customFormat="1"/>
-    <row r="5" spans="1:4" s="1" customFormat="1"/>
+    <row r="3" spans="1:2" s="1" customFormat="1"/>
+    <row r="4" spans="1:2" s="1" customFormat="1"/>
+    <row r="5" spans="1:2" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
